--- a/final_tables/Supp_tables_compiled.xlsx
+++ b/final_tables/Supp_tables_compiled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/final_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F8ECA-0CC8-654D-BC39-3D1689EAF63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FC2BA-0FDC-E14E-9348-1E05C17AA68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41780" yWindow="-1800" windowWidth="23480" windowHeight="19800" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
+    <workbookView xWindow="41780" yWindow="-1800" windowWidth="23480" windowHeight="19800" activeTab="5" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppTable1" sheetId="6" r:id="rId1"/>
@@ -1644,6 +1644,133 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplemental table 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: RDP4 output of comparisons involving novel sequences as either the recombinant sequence or a major/minor parental sequence. Unknown followed by an accession number indicates that RDP4 used that named sequence to infer an unknown parental sequence. NS denotes non-significance in that analysis. Recombination events are accepted if at least 4 tests are significant. Recombinant sequences with highest support are highlighted in red (5-6 significant tests). Novel sequences identified in this study are in bold. Particular lineages are consensus sequences of aligned phylogenetic clade members and include: Rhinolophus bat picornavirus BtSY4 clade (accessions OP963617 and PP746000), Shanbavirus A clade (accessions KJ641687, KJ641690, KJ641699, and KJ641693), R. aegypticus African picornavirus clade (accessions PP711912, PP711945, PP711913, PP711930, PP711928, and PP711909), H. larvatus Chinese hepatovirus clade (accessions OR951274, OR951275, OR867086, OR951271), Rattus tanezumi Chinese kobuvirus clade (accessions OM069746 and OM069755), Rhinolophus Chinese kobuvirus clade (accessions OR951245 and OR951365), Rodent Chinese kunsagivirus clade (accessions OQ716009 and OQ716008), Eonycteris Chinese sapelovirus clade (accessions OR951327, OR951326, OR951325, and OR951332), E. helvum Cameroonian sapovirus clade (accessions KX759619, KX759623, KX759621, NC_033776, and KX759622), R. aegypticus Kenyan sapovirus clade (accessions PP712001, PP712004, PP712008, and PP712015), R. aegypticus east African teschovirus clade (accessions PP711948 and PP711934), and Rousettus Chinese teschovirus clade (accessions OR951335, OR951333, and OR951334).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplemental table 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Summary table of BLASTx and BLASTn results of novel full and partial-length </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Picornaviridae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sequences recovered from mNGS. Bold denotes full-length sequences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Supplemental table 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Summary table of BLASTx and BLASTn results of novel full and partial-length </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Caliciviridae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sequences recovered from mNGS. Bold denotes full-length sequences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Supplemental table 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Peptide cleavage sites for full and partial-length </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Caliciviridae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sequences described in this study. Bold denotes full-length sequences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Supplemental table 4</t>
     </r>
     <r>
@@ -1672,12 +1799,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Peptide cleavage sites for full and partial-length Picornaviridae sequences described in this study. Bold denotes full-length sequences.</t>
+      <t xml:space="preserve">Peptide cleavage sites for full and partial-length </t>
     </r>
-  </si>
-  <si>
     <r>
-      <t>Supplemental table 5</t>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Picornaviridae</t>
     </r>
     <r>
       <rPr>
@@ -1686,63 +1818,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>: Peptide cleavage sites for full and partial-length Caliciviridae sequences described in this study. Bold denotes full-length sequences.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Supplemental table 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: RDP4 output of comparisons involving novel sequences as either the recombinant sequence or a major/minor parental sequence. Unknown followed by an accession number indicates that RDP4 used that named sequence to infer an unknown parental sequence. NS denotes non-significance in that analysis. Recombination events are accepted if at least 4 tests are significant. Recombinant sequences with highest support are highlighted in red (5-6 significant tests). Novel sequences identified in this study are in bold. Particular lineages are consensus sequences of aligned phylogenetic clade members and include: Rhinolophus bat picornavirus BtSY4 clade (accessions OP963617 and PP746000), Shanbavirus A clade (accessions KJ641687, KJ641690, KJ641699, and KJ641693), R. aegypticus African picornavirus clade (accessions PP711912, PP711945, PP711913, PP711930, PP711928, and PP711909), H. larvatus Chinese hepatovirus clade (accessions OR951274, OR951275, OR867086, OR951271), Rattus tanezumi Chinese kobuvirus clade (accessions OM069746 and OM069755), Rhinolophus Chinese kobuvirus clade (accessions OR951245 and OR951365), Rodent Chinese kunsagivirus clade (accessions OQ716009 and OQ716008), Eonycteris Chinese sapelovirus clade (accessions OR951327, OR951326, OR951325, and OR951332), E. helvum Cameroonian sapovirus clade (accessions KX759619, KX759623, KX759621, NC_033776, and KX759622), R. aegypticus Kenyan sapovirus clade (accessions PP712001, PP712004, PP712008, and PP712015), R. aegypticus east African teschovirus clade (accessions PP711948 and PP711934), and Rousettus Chinese teschovirus clade (accessions OR951335, OR951333, and OR951334).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Supplemental table 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Summary table of BLASTx and BLASTn results of novel full and partial-length Caliciviridae sequences recovered from mNGS. Bold denotes full-length sequences.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Supplemental table 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Summary table of BLASTx and BLASTn results of novel full and partial-length Picornaviridae sequences recovered from mNGS. Bold denotes full-length sequences.</t>
+      <t xml:space="preserve"> sequences described in this study. Bold denotes full-length sequences.</t>
     </r>
   </si>
 </sst>
@@ -1750,7 +1826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1808,6 +1884,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2266,14 +2349,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2293,8 +2370,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2633,7 +2716,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2687,44 +2770,44 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="69">
         <v>20</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="69">
         <v>273</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="71" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -3008,7 +3091,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3024,8 +3109,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>519</v>
+      <c r="A1" s="68" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4001,7 +4086,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4018,7 +4105,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4423,7 +4510,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4444,66 +4531,66 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="75" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -6007,7 +6094,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6021,7 +6108,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -6336,8 +6423,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E186" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6358,7 +6445,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/final_tables/Supp_tables_compiled.xlsx
+++ b/final_tables/Supp_tables_compiled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/final_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FC2BA-0FDC-E14E-9348-1E05C17AA68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A43E55C-63A3-BD48-9612-FE87765E207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41780" yWindow="-1800" windowWidth="23480" windowHeight="19800" activeTab="5" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="24620" windowHeight="17380" activeTab="2" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppTable1" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="532">
   <si>
     <t>Accession</t>
   </si>
@@ -1821,12 +1821,48 @@
       <t xml:space="preserve"> sequences described in this study. Bold denotes full-length sequences.</t>
     </r>
   </si>
+  <si>
+    <t>BLASTx host species</t>
+  </si>
+  <si>
+    <t>BLASTn host species</t>
+  </si>
+  <si>
+    <t>Eidolon helvum</t>
+  </si>
+  <si>
+    <t>Pongo</t>
+  </si>
+  <si>
+    <t>Eidolon dupreanum</t>
+  </si>
+  <si>
+    <t>Hipposideros gigas</t>
+  </si>
+  <si>
+    <t>Rousettus aegyptiacus</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Suncus murinus</t>
+  </si>
+  <si>
+    <t>Bos taurus</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Rousettus aegypticus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1891,6 +1927,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2160,7 +2203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2377,6 +2420,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3089,32 +3144,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EBC46E-01D7-DC4D-9663-F6798940508B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="23"/>
-    <col min="2" max="2" width="32" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="23" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="23"/>
+    <col min="2" max="3" width="32" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="23" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3122,957 +3178,1179 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="78" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" s="12">
         <v>91</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <v>95.42</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="78" t="s">
+        <v>527</v>
+      </c>
+      <c r="H4" s="12">
         <v>97</v>
       </c>
-      <c r="G4" s="12">
+      <c r="I4" s="12">
         <v>83.04</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="6">
         <v>87</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>94.75</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H5" s="6">
         <v>97</v>
       </c>
-      <c r="G5" s="6">
+      <c r="I5" s="6">
         <v>82.4</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" s="6">
         <v>91</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>94.3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H6" s="6">
         <v>78</v>
       </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>99.54</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="6">
         <v>90</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>94.26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="6">
         <v>97</v>
       </c>
-      <c r="G7" s="6">
+      <c r="I7" s="6">
         <v>82.16</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="12">
         <v>99</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="12">
         <v>92.68</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" s="12">
         <v>99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I8" s="12">
         <v>81.53</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" s="6">
         <v>87</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>100</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H9" s="6">
         <v>98</v>
       </c>
-      <c r="G9" s="6">
+      <c r="I9" s="6">
         <v>99.42</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="6">
         <v>69</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>99.33</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H10" s="6">
         <v>100</v>
       </c>
-      <c r="G10" s="6">
+      <c r="I10" s="6">
         <v>98.99</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D11" s="6">
         <v>99</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>99.47</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H11" s="6">
         <v>99</v>
       </c>
-      <c r="G11" s="6">
+      <c r="I11" s="6">
         <v>98.48</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D12" s="6">
         <v>99</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>99.31</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H12" s="6">
         <v>100</v>
       </c>
-      <c r="G12" s="6">
+      <c r="I12" s="6">
         <v>97.88</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="6">
         <v>35</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <v>97.54</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H13" s="6">
         <v>99</v>
       </c>
-      <c r="G13" s="6">
+      <c r="I13" s="6">
         <v>99.12</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="6">
         <v>85</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>99.81</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H14" s="6">
         <v>100</v>
       </c>
-      <c r="G14" s="6">
+      <c r="I14" s="6">
         <v>98.45</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" s="6">
         <v>88</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>99.71</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="H15" s="6">
         <v>99</v>
       </c>
-      <c r="G15" s="6">
+      <c r="I15" s="6">
         <v>98.4</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="12">
         <v>83</v>
       </c>
-      <c r="D16" s="12">
+      <c r="E16" s="12">
         <v>99.72</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12">
+      <c r="G16" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="H16" s="12">
         <v>85</v>
       </c>
-      <c r="G16" s="12">
+      <c r="I16" s="12">
         <v>97.91</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="12">
         <v>90</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="12">
         <v>91.61</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="H17" s="12">
         <v>95</v>
       </c>
-      <c r="G17" s="12">
+      <c r="I17" s="12">
         <v>81.93</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="D18" s="12">
         <v>81</v>
       </c>
-      <c r="D18" s="12">
+      <c r="E18" s="12">
         <v>46.51</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="78" t="s">
+        <v>528</v>
+      </c>
+      <c r="H18" s="12">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
+      <c r="I18" s="12">
         <v>69.709999999999994</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="6">
         <v>91</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <v>79.349999999999994</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H19" s="6">
         <v>43</v>
       </c>
-      <c r="G19" s="6">
+      <c r="I19" s="6">
         <v>73.959999999999994</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D20" s="6">
         <v>91</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <v>79.7</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H20" s="6">
         <v>97</v>
       </c>
-      <c r="G20" s="6">
+      <c r="I20" s="6">
         <v>73.02</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D21" s="6">
         <v>99</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>81.819999999999993</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="79" t="s">
+        <v>529</v>
+      </c>
+      <c r="H21" s="6">
         <v>15</v>
       </c>
-      <c r="G21" s="6">
+      <c r="I21" s="6">
         <v>81.94</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D22" s="6">
         <v>92</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <v>79.03</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H22" s="6">
         <v>51</v>
       </c>
-      <c r="G22" s="6">
+      <c r="I22" s="6">
         <v>72.67</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="6">
         <v>82</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <v>82.11</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H23" s="6">
         <v>99</v>
       </c>
-      <c r="G23" s="6">
+      <c r="I23" s="6">
         <v>74.599999999999994</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" s="6">
         <v>99</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>74.540000000000006</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H24" s="6">
         <v>38</v>
       </c>
-      <c r="G24" s="6">
+      <c r="I24" s="6">
         <v>75.11</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="D25" s="12">
         <v>99</v>
       </c>
-      <c r="D25" s="12">
+      <c r="E25" s="12">
         <v>78.650000000000006</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="12">
+      <c r="G25" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="H25" s="12">
         <v>99</v>
       </c>
-      <c r="G25" s="12">
+      <c r="I25" s="12">
         <v>73.989999999999995</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D26" s="6">
         <v>96</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <v>98.95</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H26" s="6">
         <v>99</v>
       </c>
-      <c r="G26" s="6">
+      <c r="I26" s="6">
         <v>94.37</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D27" s="6">
         <v>99</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <v>98.47</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H27" s="6">
         <v>99</v>
       </c>
-      <c r="G27" s="6">
+      <c r="I27" s="6">
         <v>94.73</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D28" s="6">
         <v>99</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <v>98.67</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H28" s="6">
         <v>100</v>
       </c>
-      <c r="G28" s="6">
+      <c r="I28" s="6">
         <v>92.28</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D29" s="6">
         <v>99</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <v>99.15</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H29" s="6">
         <v>99</v>
       </c>
-      <c r="G29" s="6">
+      <c r="I29" s="6">
         <v>94.57</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D30" s="6">
         <v>99</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <v>99.19</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H30" s="6">
         <v>100</v>
       </c>
-      <c r="G30" s="6">
+      <c r="I30" s="6">
         <v>94.24</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D31" s="6">
         <v>99</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <v>98.91</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H31" s="6">
         <v>100</v>
       </c>
-      <c r="G31" s="6">
+      <c r="I31" s="6">
         <v>92.83</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D32" s="8">
         <v>83</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>97.81</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H32" s="8">
         <v>87</v>
       </c>
-      <c r="G32" s="8">
+      <c r="I32" s="8">
         <v>87.42</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D33" s="6">
         <v>99</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="6">
         <v>97.03</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H33" s="6">
         <v>100</v>
       </c>
-      <c r="G33" s="6">
+      <c r="I33" s="6">
         <v>86.55</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D34" s="6">
         <v>99</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <v>98.31</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H34" s="6">
         <v>100</v>
       </c>
-      <c r="G34" s="6">
+      <c r="I34" s="6">
         <v>88.18</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D35" s="6">
         <v>99</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <v>98.45</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H35" s="6">
         <v>100</v>
       </c>
-      <c r="G35" s="6">
+      <c r="I35" s="6">
         <v>88.58</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" s="12">
         <v>94</v>
       </c>
-      <c r="D36" s="12">
+      <c r="E36" s="12">
         <v>89.68</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="12">
+      <c r="G36" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="H36" s="12">
         <v>97</v>
       </c>
-      <c r="G36" s="12">
+      <c r="I36" s="12">
         <v>79.040000000000006</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D37" s="6">
         <v>90</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <v>73.14</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H37" s="6">
         <v>32</v>
       </c>
-      <c r="G37" s="6">
+      <c r="I37" s="6">
         <v>72.67</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D38" s="6">
         <v>87</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>92.16</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H38" s="6">
         <v>94</v>
       </c>
-      <c r="G38" s="6">
+      <c r="I38" s="6">
         <v>82.69</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="D39" s="12">
         <v>88</v>
       </c>
-      <c r="D39" s="12">
+      <c r="E39" s="12">
         <v>92.25</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="12">
+      <c r="G39" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="H39" s="12">
         <v>94</v>
       </c>
-      <c r="G39" s="12">
+      <c r="I39" s="12">
         <v>79.459999999999994</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="J39" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4084,32 +4362,34 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A658CE8-F0C5-2144-AE57-17ABB7386B9A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="23"/>
+    <col min="3" max="3" width="28.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4117,385 +4397,475 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="6">
         <v>90</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>67.180000000000007</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
         <v>79.819999999999993</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="6">
         <v>77</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>99.9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="I5" s="6">
         <v>79.819999999999993</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" s="6">
         <v>99</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>67.97</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H6" s="6">
         <v>63</v>
       </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>71.400000000000006</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="6">
         <v>96</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>90.13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="6">
         <v>92</v>
       </c>
-      <c r="G7" s="6">
+      <c r="I7" s="6">
         <v>80.7</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="6">
         <v>70</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>75.260000000000005</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" s="8">
         <v>99</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>68.19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="8">
         <v>99</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>89.63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="H10" s="6">
         <v>100</v>
       </c>
-      <c r="G10" s="6">
+      <c r="I10" s="6">
         <v>77.94</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="8">
         <v>99</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>90.86</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="H11" s="8">
         <v>99</v>
       </c>
-      <c r="G11" s="8">
+      <c r="I11" s="8">
         <v>78.510000000000005</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="8">
         <v>99</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>90.59</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="H12" s="8">
         <v>97</v>
       </c>
-      <c r="G12" s="8">
+      <c r="I12" s="8">
         <v>77.28</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="8">
         <v>100</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>94.55</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="H13" s="8">
         <v>68</v>
       </c>
-      <c r="G13" s="8">
+      <c r="I13" s="8">
         <v>71.739999999999995</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="8">
         <v>99</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>86.05</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="H14" s="6">
         <v>19</v>
       </c>
-      <c r="G14" s="6">
+      <c r="I14" s="6">
         <v>73.709999999999994</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="8">
         <v>53</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>81.319999999999993</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="H15" s="8">
         <v>72</v>
       </c>
-      <c r="G15" s="8">
+      <c r="I15" s="8">
         <v>76.22</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" s="6">
         <v>99</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>84.12</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="H16" s="6">
         <v>94</v>
       </c>
-      <c r="G16" s="6">
+      <c r="I16" s="6">
         <v>75</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="12">
         <v>100</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="12">
         <v>85</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="81" t="s">
+        <v>531</v>
+      </c>
+      <c r="H17" s="12">
         <v>87</v>
       </c>
-      <c r="G17" s="12">
+      <c r="I17" s="12">
         <v>75.67</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6423,7 +6793,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E186" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/final_tables/Supp_tables_compiled.xlsx
+++ b/final_tables/Supp_tables_compiled.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/final_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/final_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788E3FB5-0FAD-6E44-8FDF-365A049A58CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09513A7D-FB23-5A4E-8D18-0EE20919992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="-1980" windowWidth="33300" windowHeight="20080" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="18740" windowHeight="17360" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppTable1" sheetId="6" r:id="rId1"/>
@@ -1512,30 +1512,6 @@
   </si>
   <si>
     <t>Number significant tests</t>
-  </si>
-  <si>
-    <r>
-      <t>Supplemental table 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Summary information of phylogenies presented in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Figure 2.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2327,6 +2303,30 @@
   </si>
   <si>
     <t>Sfig. 5E</t>
+  </si>
+  <si>
+    <r>
+      <t>Supplemental table 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Summary information of phylogenies presented in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Figure 1B and 2.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2704,7 +2704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2920,6 +2920,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2945,30 +2963,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3309,7 +3303,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3328,7 +3322,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3362,42 +3356,42 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="83">
         <v>22</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="83">
         <v>274</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="79" t="s">
-        <v>519</v>
+      <c r="I4" s="85" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="80"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -3423,7 +3417,7 @@
         <v>269</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3450,7 +3444,7 @@
         <v>273</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3477,7 +3471,7 @@
         <v>277</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3504,7 +3498,7 @@
         <v>280</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3531,7 +3525,7 @@
         <v>283</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3558,7 +3552,7 @@
         <v>287</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3585,7 +3579,7 @@
         <v>291</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3612,7 +3606,7 @@
         <v>283</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3639,7 +3633,7 @@
         <v>298</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3663,8 +3657,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3683,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3695,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -3707,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -3724,10 +3718,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D4" s="12">
         <v>91</v>
@@ -3739,7 +3733,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H4" s="12">
         <v>97</v>
@@ -3756,10 +3750,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D5" s="6">
         <v>87</v>
@@ -3771,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H5" s="6">
         <v>97</v>
@@ -3788,10 +3782,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D6" s="6">
         <v>91</v>
@@ -3803,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H6" s="6">
         <v>78</v>
@@ -3820,10 +3814,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D7" s="6">
         <v>90</v>
@@ -3835,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H7" s="6">
         <v>97</v>
@@ -3852,10 +3846,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D8" s="12">
         <v>99</v>
@@ -3867,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H8" s="12">
         <v>99</v>
@@ -3884,10 +3878,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" s="6">
         <v>87</v>
@@ -3899,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H9" s="6">
         <v>98</v>
@@ -3916,10 +3910,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D10" s="6">
         <v>69</v>
@@ -3931,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H10" s="6">
         <v>100</v>
@@ -3948,10 +3942,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D11" s="6">
         <v>99</v>
@@ -3963,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H11" s="6">
         <v>99</v>
@@ -3980,10 +3974,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D12" s="6">
         <v>99</v>
@@ -3995,7 +3989,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H12" s="6">
         <v>100</v>
@@ -4012,10 +4006,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D13" s="6">
         <v>35</v>
@@ -4027,7 +4021,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H13" s="6">
         <v>99</v>
@@ -4044,10 +4038,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D14" s="6">
         <v>85</v>
@@ -4059,7 +4053,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H14" s="6">
         <v>100</v>
@@ -4076,10 +4070,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D15" s="6">
         <v>88</v>
@@ -4091,7 +4085,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H15" s="6">
         <v>99</v>
@@ -4108,27 +4102,27 @@
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>489</v>
-      </c>
-      <c r="D16" s="87">
+        <v>499</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="6">
         <v>83</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="6">
         <v>99.72</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="86" t="s">
-        <v>489</v>
-      </c>
-      <c r="H16" s="87">
+      <c r="G16" s="70" t="s">
+        <v>488</v>
+      </c>
+      <c r="H16" s="6">
         <v>85</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="6">
         <v>97.91</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -4136,34 +4130,34 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>487</v>
-      </c>
-      <c r="D17" s="91">
+      <c r="B17" s="78" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="80">
         <v>90</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="80">
         <v>91.61</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="90" t="s">
-        <v>487</v>
-      </c>
-      <c r="H17" s="91">
+      <c r="G17" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="H17" s="80">
         <v>95</v>
       </c>
-      <c r="I17" s="91">
+      <c r="I17" s="80">
         <v>81.93</v>
       </c>
-      <c r="J17" s="89" t="s">
+      <c r="J17" s="78" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4172,10 +4166,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D18" s="12">
         <v>81</v>
@@ -4187,7 +4181,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H18" s="12">
         <v>10</v>
@@ -4204,10 +4198,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D19" s="6">
         <v>91</v>
@@ -4219,7 +4213,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H19" s="6">
         <v>43</v>
@@ -4236,10 +4230,10 @@
         <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D20" s="6">
         <v>91</v>
@@ -4251,7 +4245,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H20" s="6">
         <v>97</v>
@@ -4268,10 +4262,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D21" s="6">
         <v>99</v>
@@ -4283,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H21" s="6">
         <v>15</v>
@@ -4300,10 +4294,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D22" s="6">
         <v>92</v>
@@ -4315,7 +4309,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H22" s="6">
         <v>51</v>
@@ -4332,10 +4326,10 @@
         <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D23" s="6">
         <v>82</v>
@@ -4347,7 +4341,7 @@
         <v>41</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H23" s="6">
         <v>99</v>
@@ -4364,10 +4358,10 @@
         <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D24" s="6">
         <v>99</v>
@@ -4379,7 +4373,7 @@
         <v>36</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H24" s="6">
         <v>38</v>
@@ -4396,10 +4390,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D25" s="6">
         <v>99</v>
@@ -4411,7 +4405,7 @@
         <v>36</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H25" s="6">
         <v>99</v>
@@ -4424,14 +4418,14 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>528</v>
-      </c>
       <c r="C26" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D26" s="12">
         <v>91</v>
@@ -4443,7 +4437,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H26" s="12">
         <v>90</v>
@@ -4460,10 +4454,10 @@
         <v>49</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D27" s="6">
         <v>96</v>
@@ -4475,7 +4469,7 @@
         <v>50</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H27" s="6">
         <v>99</v>
@@ -4492,10 +4486,10 @@
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D28" s="6">
         <v>99</v>
@@ -4507,7 +4501,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H28" s="6">
         <v>99</v>
@@ -4524,10 +4518,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D29" s="6">
         <v>99</v>
@@ -4539,7 +4533,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H29" s="6">
         <v>100</v>
@@ -4556,10 +4550,10 @@
         <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D30" s="6">
         <v>99</v>
@@ -4571,7 +4565,7 @@
         <v>50</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H30" s="6">
         <v>99</v>
@@ -4588,10 +4582,10 @@
         <v>55</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D31" s="6">
         <v>99</v>
@@ -4603,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="G31" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H31" s="6">
         <v>100</v>
@@ -4620,10 +4614,10 @@
         <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D32" s="6">
         <v>99</v>
@@ -4635,7 +4629,7 @@
         <v>50</v>
       </c>
       <c r="G32" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H32" s="6">
         <v>100</v>
@@ -4652,10 +4646,10 @@
         <v>57</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D33" s="8">
         <v>83</v>
@@ -4667,7 +4661,7 @@
         <v>58</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H33" s="8">
         <v>87</v>
@@ -4684,10 +4678,10 @@
         <v>60</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D34" s="6">
         <v>99</v>
@@ -4699,7 +4693,7 @@
         <v>58</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H34" s="6">
         <v>100</v>
@@ -4716,10 +4710,10 @@
         <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D35" s="6">
         <v>99</v>
@@ -4731,7 +4725,7 @@
         <v>58</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H35" s="6">
         <v>100</v>
@@ -4748,10 +4742,10 @@
         <v>62</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D36" s="6">
         <v>99</v>
@@ -4763,7 +4757,7 @@
         <v>58</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H36" s="6">
         <v>100</v>
@@ -4780,10 +4774,10 @@
         <v>63</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D37" s="12">
         <v>94</v>
@@ -4795,7 +4789,7 @@
         <v>64</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H37" s="12">
         <v>97</v>
@@ -4812,10 +4806,10 @@
         <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D38" s="6">
         <v>90</v>
@@ -4827,7 +4821,7 @@
         <v>67</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H38" s="6">
         <v>32</v>
@@ -4844,10 +4838,10 @@
         <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D39" s="6">
         <v>87</v>
@@ -4859,7 +4853,7 @@
         <v>70</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H39" s="6">
         <v>94</v>
@@ -4876,10 +4870,10 @@
         <v>72</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D40" s="6">
         <v>88</v>
@@ -4891,7 +4885,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H40" s="6">
         <v>94</v>
@@ -4904,14 +4898,14 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>526</v>
+      <c r="A41" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D41" s="12">
         <v>91</v>
@@ -4923,7 +4917,7 @@
         <v>70</v>
       </c>
       <c r="G41" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H41" s="12">
         <v>98</v>
@@ -4967,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4979,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -4991,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -5008,10 +5002,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D4" s="6">
         <v>90</v>
@@ -5023,7 +5017,7 @@
         <v>74</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H4" s="6">
         <v>1</v>
@@ -5040,10 +5034,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D5" s="6">
         <v>77</v>
@@ -5055,7 +5049,7 @@
         <v>74</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -5072,10 +5066,10 @@
         <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D6" s="6">
         <v>99</v>
@@ -5087,7 +5081,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H6" s="6">
         <v>63</v>
@@ -5104,10 +5098,10 @@
         <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D7" s="6">
         <v>96</v>
@@ -5119,7 +5113,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H7" s="6">
         <v>92</v>
@@ -5136,10 +5130,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D8" s="6">
         <v>70</v>
@@ -5168,10 +5162,10 @@
         <v>83</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D9" s="8">
         <v>99</v>
@@ -5200,10 +5194,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D10" s="8">
         <v>99</v>
@@ -5215,7 +5209,7 @@
         <v>86</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H10" s="6">
         <v>100</v>
@@ -5232,10 +5226,10 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D11" s="8">
         <v>99</v>
@@ -5247,7 +5241,7 @@
         <v>89</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H11" s="8">
         <v>99</v>
@@ -5264,10 +5258,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D12" s="8">
         <v>99</v>
@@ -5279,7 +5273,7 @@
         <v>89</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H12" s="8">
         <v>97</v>
@@ -5296,10 +5290,10 @@
         <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D13" s="8">
         <v>100</v>
@@ -5311,7 +5305,7 @@
         <v>89</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H13" s="8">
         <v>68</v>
@@ -5328,10 +5322,10 @@
         <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D14" s="8">
         <v>99</v>
@@ -5343,7 +5337,7 @@
         <v>89</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H14" s="6">
         <v>19</v>
@@ -5360,10 +5354,10 @@
         <v>95</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D15" s="8">
         <v>53</v>
@@ -5375,7 +5369,7 @@
         <v>96</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H15" s="8">
         <v>72</v>
@@ -5392,10 +5386,10 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D16" s="6">
         <v>99</v>
@@ -5407,7 +5401,7 @@
         <v>98</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H16" s="6">
         <v>94</v>
@@ -5424,10 +5418,10 @@
         <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D17" s="6">
         <v>100</v>
@@ -5439,7 +5433,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H17" s="6">
         <v>87</v>
@@ -5453,13 +5447,13 @@
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>530</v>
-      </c>
       <c r="C18" s="69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" s="12">
         <v>93</v>
@@ -5471,7 +5465,7 @@
         <v>84</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H18" s="12">
         <v>2</v>
@@ -5480,7 +5474,7 @@
         <v>79.05</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5494,8 +5488,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5516,73 +5510,73 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="89" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
     </row>
     <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>110</v>
@@ -5623,7 +5617,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>110</v>
@@ -5664,7 +5658,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>110</v>
@@ -5705,7 +5699,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>127</v>
@@ -5746,7 +5740,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>110</v>
@@ -5787,7 +5781,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>132</v>
@@ -5828,7 +5822,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>142</v>
@@ -5869,7 +5863,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>153</v>
@@ -5910,7 +5904,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>132</v>
@@ -5951,7 +5945,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>164</v>
@@ -5992,7 +5986,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>174</v>
@@ -6033,7 +6027,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>182</v>
@@ -6074,7 +6068,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>174</v>
@@ -6111,43 +6105,43 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="C18" s="92" t="s">
+      <c r="B18" s="78" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="I18" s="89" t="s">
+      <c r="I18" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="L18" s="89" t="s">
+      <c r="L18" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="M18" s="89" t="s">
+      <c r="M18" s="78" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6156,7 +6150,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>198</v>
@@ -6197,7 +6191,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>174</v>
@@ -6238,7 +6232,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>174</v>
@@ -6279,7 +6273,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>110</v>
@@ -6320,7 +6314,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>153</v>
@@ -6361,7 +6355,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>110</v>
@@ -6402,7 +6396,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>127</v>
@@ -6443,7 +6437,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>110</v>
@@ -6480,11 +6474,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>527</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>528</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>164</v>
@@ -6502,7 +6496,7 @@
         <v>167</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>169</v>
@@ -6525,7 +6519,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>127</v>
@@ -6566,7 +6560,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>182</v>
@@ -6607,7 +6601,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>142</v>
@@ -6648,7 +6642,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>174</v>
@@ -6689,7 +6683,7 @@
         <v>55</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>174</v>
@@ -6730,7 +6724,7 @@
         <v>56</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>110</v>
@@ -6771,7 +6765,7 @@
         <v>57</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>212</v>
@@ -6812,7 +6806,7 @@
         <v>60</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>153</v>
@@ -6853,7 +6847,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>132</v>
@@ -6894,7 +6888,7 @@
         <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>164</v>
@@ -6935,7 +6929,7 @@
         <v>63</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>132</v>
@@ -6976,7 +6970,7 @@
         <v>66</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>219</v>
@@ -7017,7 +7011,7 @@
         <v>69</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>182</v>
@@ -7058,7 +7052,7 @@
         <v>72</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>182</v>
@@ -7070,7 +7064,7 @@
         <v>184</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>146</v>
@@ -7095,11 +7089,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>526</v>
+      <c r="A42" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>182</v>
@@ -7111,7 +7105,7 @@
         <v>184</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>146</v>
@@ -7176,7 +7170,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -7206,7 +7200,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>110</v>
@@ -7226,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>240</v>
@@ -7246,7 +7240,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>110</v>
@@ -7266,7 +7260,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>110</v>
@@ -7286,7 +7280,7 @@
         <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>110</v>
@@ -7306,7 +7300,7 @@
         <v>83</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>110</v>
@@ -7326,7 +7320,7 @@
         <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>110</v>
@@ -7346,7 +7340,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>110</v>
@@ -7366,7 +7360,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>110</v>
@@ -7386,7 +7380,7 @@
         <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>110</v>
@@ -7406,7 +7400,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>110</v>
@@ -7426,7 +7420,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>110</v>
@@ -7446,7 +7440,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>110</v>
@@ -7466,7 +7460,7 @@
         <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>110</v>
@@ -7483,22 +7477,22 @@
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>536</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -7511,7 +7505,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P205" sqref="P205"/>
     </sheetView>
   </sheetViews>
@@ -7533,7 +7527,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7877,10 +7871,10 @@
         <v>104</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>334</v>
@@ -7923,10 +7917,10 @@
       <c r="C12" s="26"/>
       <c r="D12" s="28"/>
       <c r="F12" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>540</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>541</v>
       </c>
       <c r="H12" s="29"/>
       <c r="M12" s="28"/>
@@ -7948,13 +7942,13 @@
         <v>1160</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F13" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>541</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>542</v>
       </c>
       <c r="H13" s="61">
         <v>7.9074702580138306E-3</v>
@@ -7992,7 +7986,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="28"/>
       <c r="G14" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H14" s="29"/>
       <c r="M14" s="28"/>
@@ -14515,7 +14509,7 @@
         <v>468</v>
       </c>
       <c r="P204" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">

--- a/final_tables/Supp_tables_compiled.xlsx
+++ b/final_tables/Supp_tables_compiled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/Kettenburg_mada-bat-picornavirus/final_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82B7DA-A0AF-2342-B5B7-5FF296515C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C27A5-7D4F-744C-82C3-D2079A2C4560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="760" windowWidth="25980" windowHeight="18200" activeTab="2" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="21420" windowHeight="18360" activeTab="6" xr2:uid="{346BDA63-FA5A-9A42-8FEC-6EA44D52A226}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppTable1" sheetId="6" r:id="rId1"/>
@@ -1512,6 +1512,720 @@
     <t>Number significant tests</t>
   </si>
   <si>
+    <t>BLASTx host species</t>
+  </si>
+  <si>
+    <t>BLASTn host species</t>
+  </si>
+  <si>
+    <t>Eidolon helvum</t>
+  </si>
+  <si>
+    <t>Pongo</t>
+  </si>
+  <si>
+    <t>Eidolon dupreanum</t>
+  </si>
+  <si>
+    <t>Hipposideros gigas</t>
+  </si>
+  <si>
+    <t>Rousettus aegyptiacus</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Suncus murinus</t>
+  </si>
+  <si>
+    <t>Bos taurus</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Rousettus aegypticus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cardiovirus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> hepatovirus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kobuvirus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kunsagivirus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">P. rufus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mischivirus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> picornavirus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> picornavirus 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> picornavirus 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapelovirus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapelovirus 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapelovirus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> teschovirus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> teschovirus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> teschovirus 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. dupreanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 3</t>
+    </r>
+  </si>
+  <si>
+    <t>TIM2+F+R10</t>
+  </si>
+  <si>
+    <t>GTR+F+I+G4</t>
+  </si>
+  <si>
+    <t>GTR+F+R10</t>
+  </si>
+  <si>
+    <t>TIM2e+R2</t>
+  </si>
+  <si>
+    <t>GTR+F+R4</t>
+  </si>
+  <si>
+    <t>GTR+F+R5</t>
+  </si>
+  <si>
+    <t>TIM2+F+R9</t>
+  </si>
+  <si>
+    <t>PV788826</t>
+  </si>
+  <si>
+    <t>PV788825</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> picornavirus 4</t>
+    </r>
+  </si>
+  <si>
+    <t>PV788824</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R. madagascariensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sapovirus 4</t>
+    </r>
+  </si>
+  <si>
+    <t>PP712008.1</t>
+  </si>
+  <si>
+    <t>R. madagascariensis sapovirus 4</t>
+  </si>
+  <si>
+    <t>meQ/Gpl</t>
+  </si>
+  <si>
+    <t>gvQ/Spd</t>
+  </si>
+  <si>
+    <t>tdA/Gla</t>
+  </si>
+  <si>
+    <t>vlE/Gkk</t>
+  </si>
+  <si>
+    <t>ieE/Gsa</t>
+  </si>
+  <si>
+    <t>ppQ/Rqi</t>
+  </si>
+  <si>
+    <t>Unknown (PP711909)</t>
+  </si>
+  <si>
+    <t>Unknown(PP711930)</t>
+  </si>
+  <si>
+    <t>PP711913</t>
+  </si>
+  <si>
+    <t>Unknown (PP711930)</t>
+  </si>
+  <si>
+    <t>Unknown(PP711909)</t>
+  </si>
+  <si>
+    <t>Sfig. 5E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplemental table 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: RDP4 output of comparisons involving novel sequences as either the recombinant sequence or a major/minor parental sequence. Unknown followed by an accession number indicates that RDP4 used that named sequence to infer an unknown parental sequence. NS denotes non-significance in that analysis. Recombination events are accepted if at least 4 tests are significant. Recombinant sequences with highest support are highlighted in red (5-6 significant tests). Novel sequences identified in this study are in bold. Particular lineages are consensus sequences of aligned phylogenetic clade members and include: Rhinolophus bat picornavirus BtSY4 clade (accessions OP963617 and PP746000), Shanbavirus A clade (accessions KJ641687, KJ641690, KJ641699, and KJ641693), R. aegypticus African picornavirus clade (accessions PP711912, PP711945, PP711913, PP711930, PP711928, and PP711909), H. larvatus Chinese hepatovirus clade (accessions OR951274, OR951275, OR867086, OR951271), Rattus tanezumi Chinese kobuvirus clade (accessions OM069746 and OM069755), Rhinolophus Chinese kobuvirus clade (accessions OR951245 and OR951365), Rodent Chinese kunsagivirus clade (accessions OQ716009 and OQ716008), Eonycteris Chinese sapelovirus clade (accessions OR951327, OR951326, OR951325, and OR951332), E. helvum Cameroonian sapovirus clade (accessions KX759619, KX759623, KX759621, NC_033776, and KX759622), R. aegypticus Kenyan sapovirus clade (accessions PP712001, PP712004, PP712008, and PP712015), R. aegypticus east African teschovirus clade (accessions PP711948 and PP711934), and Rousettus Chinese teschovirus clade (accessions OR951335, OR951333, and OR951334).</t>
+    </r>
+  </si>
+  <si>
+    <t>Virus genus</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t># Co-speciations</t>
+  </si>
+  <si>
+    <t># Duplications</t>
+  </si>
+  <si>
+    <t># Host switches</t>
+  </si>
+  <si>
+    <t># Losses</t>
+  </si>
+  <si>
+    <t># Failures to diverge</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Events = 1</t>
+  </si>
+  <si>
+    <t>Events = 0</t>
+  </si>
+  <si>
+    <t>Co-speciation = 0, other events =1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unclassified </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bat picornavirus</t>
+    </r>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>2I</t>
+  </si>
+  <si>
+    <r>
+      <t>Supplemental table 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Summary information of phylogenies presented in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Figure 1A and 2.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1529,26 +2243,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: Summary table of BLASTx and BLASTn results of novel full and partial-length </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Picornaviridae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sequences recovered from mNGS. Bold denotes full-length sequences.</t>
+      <t>: Summary table of BLASTx and BLASTn results of novel full and partial-length picornaviruses recovered from mNGS. Bold denotes full-length sequences.</t>
     </r>
   </si>
   <si>
@@ -1562,26 +2257,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: Summary table of BLASTx and BLASTn results of novel full and partial-length </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Caliciviridae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sequences recovered from mNGS. Bold denotes full-length sequences.</t>
+      <t>: Summary table of BLASTx and BLASTn results of novel full and partial-length sapoviruses recovered from mNGS. Bold denotes full-length sequences.</t>
     </r>
   </si>
   <si>
@@ -1595,26 +2271,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: Peptide cleavage sites for full and partial-length </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Caliciviridae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sequences described in this study. Bold denotes full-length sequences.</t>
+      <t>: Peptide cleavage sites for full and partial-length sapoviruses described in this study. Bold denotes full-length sequences.</t>
     </r>
   </si>
   <si>
@@ -1647,741 +2304,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Peptide cleavage sites for full and partial-length </t>
+      <t>Peptide cleavage sites for full and partial-length picornaviruses described in this study. Bold denotes full-length sequences.</t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Picornaviridae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sequences described in this study. Bold denotes full-length sequences.</t>
-    </r>
-  </si>
-  <si>
-    <t>BLASTx host species</t>
-  </si>
-  <si>
-    <t>BLASTn host species</t>
-  </si>
-  <si>
-    <t>Eidolon helvum</t>
-  </si>
-  <si>
-    <t>Pongo</t>
-  </si>
-  <si>
-    <t>Eidolon dupreanum</t>
-  </si>
-  <si>
-    <t>Hipposideros gigas</t>
-  </si>
-  <si>
-    <t>Rousettus aegyptiacus</t>
-  </si>
-  <si>
-    <t>Rattus norvegicus</t>
-  </si>
-  <si>
-    <t>Suncus murinus</t>
-  </si>
-  <si>
-    <t>Bos taurus</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Rousettus aegypticus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cardiovirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> hepatovirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kobuvirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kunsagivirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">P. rufus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>mischivirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> picornavirus 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> picornavirus 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> picornavirus 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapelovirus 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapelovirus 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapelovirus 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> teschovirus 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> teschovirus 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> teschovirus 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. dupreanum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 3</t>
-    </r>
-  </si>
-  <si>
-    <t>TIM2+F+R10</t>
-  </si>
-  <si>
-    <t>GTR+F+I+G4</t>
-  </si>
-  <si>
-    <t>GTR+F+R10</t>
-  </si>
-  <si>
-    <t>TIM2e+R2</t>
-  </si>
-  <si>
-    <t>GTR+F+R4</t>
-  </si>
-  <si>
-    <t>GTR+F+R5</t>
-  </si>
-  <si>
-    <t>TIM2+F+R9</t>
-  </si>
-  <si>
-    <t>PV788826</t>
-  </si>
-  <si>
-    <t>PV788825</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> picornavirus 4</t>
-    </r>
-  </si>
-  <si>
-    <t>PV788824</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>R. madagascariensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sapovirus 4</t>
-    </r>
-  </si>
-  <si>
-    <t>PP712008.1</t>
-  </si>
-  <si>
-    <t>R. madagascariensis sapovirus 4</t>
-  </si>
-  <si>
-    <t>meQ/Gpl</t>
-  </si>
-  <si>
-    <t>gvQ/Spd</t>
-  </si>
-  <si>
-    <t>tdA/Gla</t>
-  </si>
-  <si>
-    <t>vlE/Gkk</t>
-  </si>
-  <si>
-    <t>ieE/Gsa</t>
-  </si>
-  <si>
-    <t>ppQ/Rqi</t>
-  </si>
-  <si>
-    <t>Unknown (PP711909)</t>
-  </si>
-  <si>
-    <t>Unknown(PP711930)</t>
-  </si>
-  <si>
-    <t>PP711913</t>
-  </si>
-  <si>
-    <t>Unknown (PP711930)</t>
-  </si>
-  <si>
-    <t>Unknown(PP711909)</t>
-  </si>
-  <si>
-    <t>Sfig. 5E</t>
-  </si>
-  <si>
-    <r>
-      <t>Supplemental table 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Summary information of phylogenies presented in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Figure 1B and 2.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Supplemental table 7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: RDP4 output of comparisons involving novel sequences as either the recombinant sequence or a major/minor parental sequence. Unknown followed by an accession number indicates that RDP4 used that named sequence to infer an unknown parental sequence. NS denotes non-significance in that analysis. Recombination events are accepted if at least 4 tests are significant. Recombinant sequences with highest support are highlighted in red (5-6 significant tests). Novel sequences identified in this study are in bold. Particular lineages are consensus sequences of aligned phylogenetic clade members and include: Rhinolophus bat picornavirus BtSY4 clade (accessions OP963617 and PP746000), Shanbavirus A clade (accessions KJ641687, KJ641690, KJ641699, and KJ641693), R. aegypticus African picornavirus clade (accessions PP711912, PP711945, PP711913, PP711930, PP711928, and PP711909), H. larvatus Chinese hepatovirus clade (accessions OR951274, OR951275, OR867086, OR951271), Rattus tanezumi Chinese kobuvirus clade (accessions OM069746 and OM069755), Rhinolophus Chinese kobuvirus clade (accessions OR951245 and OR951365), Rodent Chinese kunsagivirus clade (accessions OQ716009 and OQ716008), Eonycteris Chinese sapelovirus clade (accessions OR951327, OR951326, OR951325, and OR951332), E. helvum Cameroonian sapovirus clade (accessions KX759619, KX759623, KX759621, NC_033776, and KX759622), R. aegypticus Kenyan sapovirus clade (accessions PP712001, PP712004, PP712008, and PP712015), R. aegypticus east African teschovirus clade (accessions PP711948 and PP711934), and Rousettus Chinese teschovirus clade (accessions OR951335, OR951333, and OR951334).</t>
-    </r>
-  </si>
-  <si>
-    <t>Virus genus</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
-    <t># Co-speciations</t>
-  </si>
-  <si>
-    <t># Duplications</t>
-  </si>
-  <si>
-    <t># Host switches</t>
-  </si>
-  <si>
-    <t># Losses</t>
-  </si>
-  <si>
-    <t># Failures to diverge</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Events = 1</t>
-  </si>
-  <si>
-    <t>Events = 0</t>
-  </si>
-  <si>
-    <t>Co-speciation = 0, other events =1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unclassified </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>bat picornavirus</t>
-    </r>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>2F</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
-    <t>2I</t>
   </si>
   <si>
     <r>
@@ -2401,7 +2325,45 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: Jane co-evolutionary analysis output for virus genera and their hosts identified in this study. The least costly evolutionary scenario is 0, which is further shown in Figure 4 and Supplemental figure 6. </t>
+      <t xml:space="preserve">: Jane co-evolutionary analysis output for virus genera and their hosts identified in this study. The least costly evolutionary scenario is 0, which is further shown in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Figure 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplemental figure 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
     </r>
   </si>
 </sst>
@@ -3585,7 +3547,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3604,7 +3566,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3642,7 +3604,7 @@
         <v>260</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C4" s="94" t="s">
         <v>298</v>
@@ -3663,7 +3625,7 @@
         <v>263</v>
       </c>
       <c r="I4" s="96" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3682,7 +3644,7 @@
         <v>264</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>265</v>
@@ -3703,7 +3665,7 @@
         <v>268</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3711,7 +3673,7 @@
         <v>269</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>270</v>
@@ -3732,7 +3694,7 @@
         <v>272</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3740,7 +3702,7 @@
         <v>273</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>274</v>
@@ -3761,7 +3723,7 @@
         <v>276</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3769,7 +3731,7 @@
         <v>277</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>278</v>
@@ -3790,7 +3752,7 @@
         <v>279</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3798,7 +3760,7 @@
         <v>280</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>281</v>
@@ -3819,7 +3781,7 @@
         <v>282</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3827,7 +3789,7 @@
         <v>283</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>284</v>
@@ -3848,7 +3810,7 @@
         <v>286</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3818,7 @@
         <v>287</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>288</v>
@@ -3877,7 +3839,7 @@
         <v>290</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3885,7 +3847,7 @@
         <v>291</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>292</v>
@@ -3906,7 +3868,7 @@
         <v>282</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3914,7 +3876,7 @@
         <v>294</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>295</v>
@@ -3935,7 +3897,7 @@
         <v>297</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3959,8 +3921,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3979,7 +3941,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
-        <v>478</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3991,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -4003,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -4020,10 +3982,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D4" s="12">
         <v>91</v>
@@ -4035,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H4" s="12">
         <v>97</v>
@@ -4052,10 +4014,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D5" s="6">
         <v>87</v>
@@ -4067,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H5" s="6">
         <v>97</v>
@@ -4084,10 +4046,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D6" s="6">
         <v>91</v>
@@ -4099,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H6" s="6">
         <v>78</v>
@@ -4116,10 +4078,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D7" s="6">
         <v>90</v>
@@ -4131,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H7" s="6">
         <v>97</v>
@@ -4148,10 +4110,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D8" s="12">
         <v>99</v>
@@ -4163,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H8" s="12">
         <v>99</v>
@@ -4180,10 +4142,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D9" s="6">
         <v>69</v>
@@ -4195,7 +4157,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H9" s="6">
         <v>100</v>
@@ -4212,10 +4174,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D10" s="6">
         <v>99</v>
@@ -4227,7 +4189,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H10" s="6">
         <v>99</v>
@@ -4244,10 +4206,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D11" s="6">
         <v>99</v>
@@ -4259,7 +4221,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H11" s="6">
         <v>100</v>
@@ -4276,10 +4238,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D12" s="6">
         <v>35</v>
@@ -4291,7 +4253,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H12" s="6">
         <v>99</v>
@@ -4308,10 +4270,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D13" s="6">
         <v>85</v>
@@ -4323,7 +4285,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H13" s="6">
         <v>100</v>
@@ -4340,10 +4302,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D14" s="6">
         <v>88</v>
@@ -4355,7 +4317,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H14" s="6">
         <v>99</v>
@@ -4372,10 +4334,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D15" s="80">
         <v>90</v>
@@ -4387,7 +4349,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H15" s="80">
         <v>95</v>
@@ -4404,10 +4366,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D16" s="12">
         <v>81</v>
@@ -4419,7 +4381,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H16" s="12">
         <v>10</v>
@@ -4436,10 +4398,10 @@
         <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D17" s="6">
         <v>91</v>
@@ -4451,7 +4413,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H17" s="6">
         <v>43</v>
@@ -4468,10 +4430,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D18" s="6">
         <v>91</v>
@@ -4483,7 +4445,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H18" s="6">
         <v>97</v>
@@ -4500,10 +4462,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D19" s="6">
         <v>99</v>
@@ -4515,7 +4477,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H19" s="6">
         <v>15</v>
@@ -4532,10 +4494,10 @@
         <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D20" s="6">
         <v>92</v>
@@ -4547,7 +4509,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H20" s="6">
         <v>51</v>
@@ -4564,10 +4526,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D21" s="6">
         <v>82</v>
@@ -4579,7 +4541,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H21" s="6">
         <v>99</v>
@@ -4596,10 +4558,10 @@
         <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D22" s="6">
         <v>99</v>
@@ -4611,7 +4573,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H22" s="6">
         <v>38</v>
@@ -4628,10 +4590,10 @@
         <v>47</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D23" s="6">
         <v>99</v>
@@ -4643,7 +4605,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H23" s="6">
         <v>99</v>
@@ -4657,13 +4619,13 @@
     </row>
     <row r="24" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D24" s="12">
         <v>91</v>
@@ -4675,7 +4637,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H24" s="12">
         <v>90</v>
@@ -4692,10 +4654,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D25" s="6">
         <v>96</v>
@@ -4707,7 +4669,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H25" s="6">
         <v>99</v>
@@ -4724,10 +4686,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D26" s="6">
         <v>99</v>
@@ -4739,7 +4701,7 @@
         <v>49</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H26" s="6">
         <v>99</v>
@@ -4756,10 +4718,10 @@
         <v>52</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D27" s="6">
         <v>99</v>
@@ -4771,7 +4733,7 @@
         <v>49</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H27" s="6">
         <v>100</v>
@@ -4788,10 +4750,10 @@
         <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D28" s="6">
         <v>99</v>
@@ -4803,7 +4765,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H28" s="6">
         <v>99</v>
@@ -4820,10 +4782,10 @@
         <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D29" s="6">
         <v>99</v>
@@ -4835,7 +4797,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H29" s="6">
         <v>100</v>
@@ -4852,10 +4814,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D30" s="6">
         <v>99</v>
@@ -4867,7 +4829,7 @@
         <v>49</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H30" s="6">
         <v>100</v>
@@ -4884,10 +4846,10 @@
         <v>56</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D31" s="8">
         <v>83</v>
@@ -4899,7 +4861,7 @@
         <v>57</v>
       </c>
       <c r="G31" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H31" s="8">
         <v>87</v>
@@ -4916,10 +4878,10 @@
         <v>59</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D32" s="6">
         <v>99</v>
@@ -4931,7 +4893,7 @@
         <v>57</v>
       </c>
       <c r="G32" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H32" s="6">
         <v>100</v>
@@ -4948,10 +4910,10 @@
         <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D33" s="6">
         <v>99</v>
@@ -4963,7 +4925,7 @@
         <v>57</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H33" s="6">
         <v>100</v>
@@ -4980,10 +4942,10 @@
         <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D34" s="6">
         <v>99</v>
@@ -4995,7 +4957,7 @@
         <v>57</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H34" s="6">
         <v>100</v>
@@ -5012,10 +4974,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D35" s="12">
         <v>94</v>
@@ -5027,7 +4989,7 @@
         <v>63</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H35" s="12">
         <v>97</v>
@@ -5044,10 +5006,10 @@
         <v>65</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D36" s="6">
         <v>90</v>
@@ -5059,7 +5021,7 @@
         <v>66</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H36" s="6">
         <v>32</v>
@@ -5076,10 +5038,10 @@
         <v>68</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D37" s="6">
         <v>87</v>
@@ -5091,7 +5053,7 @@
         <v>69</v>
       </c>
       <c r="G37" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H37" s="6">
         <v>94</v>
@@ -5108,10 +5070,10 @@
         <v>71</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D38" s="6">
         <v>88</v>
@@ -5123,7 +5085,7 @@
         <v>69</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H38" s="6">
         <v>94</v>
@@ -5137,13 +5099,13 @@
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D39" s="12">
         <v>91</v>
@@ -5155,7 +5117,7 @@
         <v>69</v>
       </c>
       <c r="G39" s="69" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H39" s="12">
         <v>98</v>
@@ -5178,8 +5140,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5199,7 +5161,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5211,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -5223,7 +5185,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -5240,10 +5202,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D4" s="6">
         <v>90</v>
@@ -5255,7 +5217,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H4" s="6">
         <v>1</v>
@@ -5272,10 +5234,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D5" s="6">
         <v>77</v>
@@ -5287,7 +5249,7 @@
         <v>73</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -5304,10 +5266,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D6" s="6">
         <v>99</v>
@@ -5319,7 +5281,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H6" s="6">
         <v>63</v>
@@ -5336,10 +5298,10 @@
         <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D7" s="6">
         <v>96</v>
@@ -5351,7 +5313,7 @@
         <v>73</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H7" s="6">
         <v>92</v>
@@ -5368,10 +5330,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D8" s="6">
         <v>70</v>
@@ -5400,10 +5362,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D9" s="8">
         <v>99</v>
@@ -5432,10 +5394,10 @@
         <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D10" s="8">
         <v>99</v>
@@ -5447,7 +5409,7 @@
         <v>85</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H10" s="6">
         <v>100</v>
@@ -5464,10 +5426,10 @@
         <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D11" s="8">
         <v>99</v>
@@ -5479,7 +5441,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H11" s="8">
         <v>99</v>
@@ -5496,10 +5458,10 @@
         <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D12" s="8">
         <v>99</v>
@@ -5511,7 +5473,7 @@
         <v>88</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H12" s="8">
         <v>97</v>
@@ -5528,10 +5490,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D13" s="8">
         <v>100</v>
@@ -5543,7 +5505,7 @@
         <v>88</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H13" s="8">
         <v>68</v>
@@ -5560,10 +5522,10 @@
         <v>93</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D14" s="8">
         <v>99</v>
@@ -5575,7 +5537,7 @@
         <v>88</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H14" s="6">
         <v>19</v>
@@ -5592,10 +5554,10 @@
         <v>94</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D15" s="8">
         <v>53</v>
@@ -5607,7 +5569,7 @@
         <v>95</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H15" s="8">
         <v>72</v>
@@ -5624,10 +5586,10 @@
         <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D16" s="6">
         <v>99</v>
@@ -5639,7 +5601,7 @@
         <v>97</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H16" s="6">
         <v>94</v>
@@ -5656,10 +5618,10 @@
         <v>99</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D17" s="6">
         <v>100</v>
@@ -5671,7 +5633,7 @@
         <v>85</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H17" s="6">
         <v>87</v>
@@ -5685,13 +5647,13 @@
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D18" s="12">
         <v>93</v>
@@ -5703,7 +5665,7 @@
         <v>83</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H18" s="12">
         <v>2</v>
@@ -5712,7 +5674,7 @@
         <v>79.05</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5727,7 +5689,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5748,7 +5710,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>564</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5814,7 +5776,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>109</v>
@@ -5855,7 +5817,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>109</v>
@@ -5896,7 +5858,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>109</v>
@@ -5937,7 +5899,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>126</v>
@@ -5978,7 +5940,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>109</v>
@@ -6019,7 +5981,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>141</v>
@@ -6060,7 +6022,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>152</v>
@@ -6101,7 +6063,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>131</v>
@@ -6142,7 +6104,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>163</v>
@@ -6183,7 +6145,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>173</v>
@@ -6224,7 +6186,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>181</v>
@@ -6265,7 +6227,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C16" s="81" t="s">
         <v>109</v>
@@ -6306,7 +6268,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>197</v>
@@ -6347,7 +6309,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>173</v>
@@ -6388,7 +6350,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>173</v>
@@ -6429,7 +6391,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>109</v>
@@ -6470,7 +6432,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>152</v>
@@ -6511,7 +6473,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>109</v>
@@ -6552,7 +6514,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>126</v>
@@ -6593,7 +6555,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>109</v>
@@ -6631,10 +6593,10 @@
     </row>
     <row r="25" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>163</v>
@@ -6652,7 +6614,7 @@
         <v>166</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>168</v>
@@ -6675,7 +6637,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>126</v>
@@ -6716,7 +6678,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>181</v>
@@ -6757,7 +6719,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>141</v>
@@ -6798,7 +6760,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>173</v>
@@ -6839,7 +6801,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>173</v>
@@ -6880,7 +6842,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>109</v>
@@ -6921,7 +6883,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>211</v>
@@ -6962,7 +6924,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>152</v>
@@ -7003,7 +6965,7 @@
         <v>60</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>131</v>
@@ -7044,7 +7006,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>163</v>
@@ -7085,7 +7047,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>131</v>
@@ -7126,7 +7088,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>218</v>
@@ -7167,7 +7129,7 @@
         <v>68</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>181</v>
@@ -7208,7 +7170,7 @@
         <v>71</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>181</v>
@@ -7220,7 +7182,7 @@
         <v>183</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>145</v>
@@ -7246,10 +7208,10 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>181</v>
@@ -7261,7 +7223,7 @@
         <v>183</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>145</v>
@@ -7312,7 +7274,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7326,7 +7288,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>480</v>
+        <v>563</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -7356,7 +7318,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>109</v>
@@ -7376,7 +7338,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>239</v>
@@ -7396,7 +7358,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>109</v>
@@ -7416,7 +7378,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>109</v>
@@ -7436,7 +7398,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>109</v>
@@ -7456,7 +7418,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>109</v>
@@ -7476,7 +7438,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>109</v>
@@ -7496,7 +7458,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>109</v>
@@ -7516,7 +7478,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>109</v>
@@ -7536,7 +7498,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>109</v>
@@ -7556,7 +7518,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>109</v>
@@ -7576,7 +7538,7 @@
         <v>94</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>109</v>
@@ -7596,7 +7558,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>109</v>
@@ -7616,7 +7578,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>109</v>
@@ -7633,22 +7595,22 @@
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>532</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7661,7 +7623,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7684,28 +7646,28 @@
     <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="100" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>541</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>542</v>
+      </c>
+      <c r="F3" s="100" t="s">
         <v>543</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="G3" s="100" t="s">
         <v>544</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="H3" s="100" t="s">
         <v>545</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>547</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>548</v>
-      </c>
-      <c r="G3" s="100" t="s">
-        <v>549</v>
-      </c>
-      <c r="H3" s="100" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7720,10 +7682,10 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="108" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -7747,7 +7709,7 @@
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="109"/>
       <c r="B6" s="83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C6" s="84">
         <v>0</v>
@@ -7771,7 +7733,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="109"/>
       <c r="B7" s="111" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C7" s="85">
         <v>2</v>
@@ -7819,7 +7781,7 @@
         <v>287</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -7843,7 +7805,7 @@
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="104"/>
       <c r="B10" s="83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C10" s="84">
         <v>0</v>
@@ -7867,7 +7829,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="111" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C11" s="85">
         <v>4</v>
@@ -7915,7 +7877,7 @@
         <v>291</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C13" s="87">
         <v>0</v>
@@ -7939,7 +7901,7 @@
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="104"/>
       <c r="B14" s="83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C14" s="84">
         <v>0</v>
@@ -7963,7 +7925,7 @@
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="104"/>
       <c r="B15" s="106" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C15" s="85">
         <v>4</v>
@@ -8011,7 +7973,7 @@
         <v>294</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C17" s="87">
         <v>0</v>
@@ -8035,7 +7997,7 @@
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="104"/>
       <c r="B18" s="83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C18" s="84">
         <v>0</v>
@@ -8059,7 +8021,7 @@
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="104"/>
       <c r="B19" s="106" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C19" s="85">
         <v>5</v>
@@ -8107,7 +8069,7 @@
         <v>280</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C21" s="87">
         <v>0</v>
@@ -8131,7 +8093,7 @@
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="104"/>
       <c r="B22" s="83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C22" s="84">
         <v>0</v>
@@ -8155,7 +8117,7 @@
     <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="105"/>
       <c r="B23" s="93" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C23" s="91">
         <v>2</v>
@@ -8181,7 +8143,7 @@
         <v>277</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C24" s="87">
         <v>0</v>
@@ -8205,7 +8167,7 @@
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="104"/>
       <c r="B25" s="83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C25" s="84">
         <v>0</v>
@@ -8229,7 +8191,7 @@
     <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="105"/>
       <c r="B26" s="93" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C26" s="91">
         <v>3</v>
@@ -8255,7 +8217,7 @@
         <v>269</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C27" s="87">
         <v>0</v>
@@ -8279,7 +8241,7 @@
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="104"/>
       <c r="B28" s="83" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C28" s="84">
         <v>0</v>
@@ -8303,7 +8265,7 @@
     <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="105"/>
       <c r="B29" s="93" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C29" s="91">
         <v>4</v>
@@ -8355,8 +8317,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8377,7 +8339,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8721,10 +8683,10 @@
         <v>104</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>333</v>
@@ -8767,10 +8729,10 @@
       <c r="C12" s="26"/>
       <c r="D12" s="28"/>
       <c r="F12" s="27" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H12" s="29"/>
       <c r="M12" s="28"/>
@@ -8792,13 +8754,13 @@
         <v>1160</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H13" s="61">
         <v>7.9074702580138306E-3</v>
@@ -8836,7 +8798,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="28"/>
       <c r="G14" s="27" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H14" s="29"/>
       <c r="M14" s="28"/>
@@ -15359,7 +15321,7 @@
         <v>467</v>
       </c>
       <c r="P204" s="22" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
